--- a/data/trans_orig/P79A10_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P79A10_2023-Edad-trans_orig.xlsx
@@ -741,7 +741,7 @@
         <v>11256</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2674</v>
+        <v>3150</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>15835</v>
@@ -750,7 +750,7 @@
         <v>0.7108074164449213</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1688735378523615</v>
+        <v>0.1989323758984135</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -762,19 +762,19 @@
         <v>7950</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2605</v>
+        <v>2719</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12258</v>
+        <v>12267</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5858123747377542</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.191969207783324</v>
+        <v>0.2003364736330523</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9032432501266474</v>
+        <v>0.9039056576971476</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -783,19 +783,19 @@
         <v>19206</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9454</v>
+        <v>9970</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26354</v>
+        <v>26589</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6531199807152395</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3214934747085498</v>
+        <v>0.3390442151266064</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8962196989545812</v>
+        <v>0.9041873870483816</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13214</v>
+        <v>12897</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2891925835550787</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8344737198443656</v>
+        <v>0.8144787203635955</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -833,19 +833,19 @@
         <v>5621</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10966</v>
+        <v>10848</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4141876252622459</v>
+        <v>0.4141876252622458</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09676598883692156</v>
+        <v>0.09605054659526406</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8080389728651741</v>
+        <v>0.7993634029430458</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -854,19 +854,19 @@
         <v>10200</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3052</v>
+        <v>2817</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19952</v>
+        <v>19436</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3468800192847606</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1037803010454187</v>
+        <v>0.09581261295161837</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6785065252914492</v>
+        <v>0.6609557848733936</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>22179</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14192</v>
+        <v>13384</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27594</v>
+        <v>27542</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.7677222319602157</v>
+        <v>0.7677222319602158</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.491256616222037</v>
+        <v>0.4633053151975518</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9551599013177802</v>
+        <v>0.9533776537836244</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -979,19 +979,19 @@
         <v>10815</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6036</v>
+        <v>5786</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13842</v>
+        <v>13821</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7265982951163908</v>
+        <v>0.7265982951163907</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4055382860051039</v>
+        <v>0.3886851727777718</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9299113138010409</v>
+        <v>0.9285249651062335</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>25</v>
@@ -1000,19 +1000,19 @@
         <v>32994</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23545</v>
+        <v>24013</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>39766</v>
+        <v>39962</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.7537380764223933</v>
+        <v>0.7537380764223931</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5378822098713852</v>
+        <v>0.5485761450613014</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9084279411791747</v>
+        <v>0.9129103382756193</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>6710</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1295</v>
+        <v>1347</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14697</v>
+        <v>15505</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2322777680397841</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04484009868221944</v>
+        <v>0.04662234621637577</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.508743383777963</v>
+        <v>0.5366946848024506</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -1050,19 +1050,19 @@
         <v>4070</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1043</v>
+        <v>1064</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8849</v>
+        <v>9099</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2734017048836092</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07008868619895911</v>
+        <v>0.07147503489376647</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5944617139948957</v>
+        <v>0.6113148272222283</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -1071,19 +1071,19 @@
         <v>10780</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4008</v>
+        <v>3812</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>20229</v>
+        <v>19761</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2462619235776067</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09157205882082582</v>
+        <v>0.08708966172438064</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4621177901286149</v>
+        <v>0.451423854938699</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>23173</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18408</v>
+        <v>18693</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26042</v>
+        <v>25987</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8556037247136848</v>
+        <v>0.8556037247136845</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6796793566544603</v>
+        <v>0.6901737462064147</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9615325362954553</v>
+        <v>0.9595059711103843</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -1196,19 +1196,19 @@
         <v>17036</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13081</v>
+        <v>13184</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20162</v>
+        <v>19545</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7803960174138738</v>
+        <v>0.7803960174138741</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5992310366147169</v>
+        <v>0.6039473386648939</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9236089621284453</v>
+        <v>0.8953377088729366</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>40</v>
@@ -1217,19 +1217,19 @@
         <v>40208</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34243</v>
+        <v>33337</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>44257</v>
+        <v>44339</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.822039114825011</v>
+        <v>0.8220391148250111</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7000757631986541</v>
+        <v>0.6815570155057205</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9048170101874164</v>
+        <v>0.9064806813780749</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>3911</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1042</v>
+        <v>1097</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8676</v>
+        <v>8391</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1443962752863154</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0384674637045447</v>
+        <v>0.0404940288896157</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3203206433455396</v>
+        <v>0.3098262537935854</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -1267,19 +1267,19 @@
         <v>4794</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1668</v>
+        <v>2285</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8749</v>
+        <v>8646</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.219603982586126</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07639103787155462</v>
+        <v>0.1046622911270634</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4007689633852831</v>
+        <v>0.3960526613351061</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -1288,19 +1288,19 @@
         <v>8705</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4656</v>
+        <v>4574</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>14670</v>
+        <v>15576</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.177960885174989</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09518298981258351</v>
+        <v>0.0935193186219251</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2999242368013459</v>
+        <v>0.3184429844942795</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>25036</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18763</v>
+        <v>18835</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29814</v>
+        <v>29425</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7635075576697962</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5721923509915571</v>
+        <v>0.5743842531589591</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9092098763481935</v>
+        <v>0.8973576118786853</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -1413,19 +1413,19 @@
         <v>24595</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21292</v>
+        <v>21334</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26532</v>
+        <v>26538</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9052886333342401</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7837093854608586</v>
+        <v>0.7852522613685152</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9765783732414115</v>
+        <v>0.976820921927272</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>56</v>
@@ -1434,19 +1434,19 @@
         <v>49630</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>42699</v>
+        <v>42230</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>54880</v>
+        <v>54646</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8277499886850619</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7121460438125644</v>
+        <v>0.7043208539709965</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9153042235862011</v>
+        <v>0.9114060627097664</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>7755</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2977</v>
+        <v>3366</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14028</v>
+        <v>13956</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2364924423302038</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09079012365180292</v>
+        <v>0.1026423881213116</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4278076490084429</v>
+        <v>0.4256157468410407</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -1484,19 +1484,19 @@
         <v>2573</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5876</v>
+        <v>5834</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.09471136666575991</v>
+        <v>0.09471136666575992</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02342162675858849</v>
+        <v>0.02317907807272809</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2162906145391414</v>
+        <v>0.2147477386314846</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -1505,19 +1505,19 @@
         <v>10328</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5078</v>
+        <v>5312</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>17259</v>
+        <v>17728</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1722500113149381</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08469577641379891</v>
+        <v>0.08859393729023377</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2878539561874359</v>
+        <v>0.2956791460290034</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>24616</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19012</v>
+        <v>19236</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28080</v>
+        <v>28297</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8206560266361425</v>
+        <v>0.8206560266361426</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.633821297665784</v>
+        <v>0.6412784811455391</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9361349246642493</v>
+        <v>0.9433481450229896</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -1630,19 +1630,19 @@
         <v>22084</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18054</v>
+        <v>18098</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24849</v>
+        <v>24843</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8047030462455945</v>
+        <v>0.8047030462455944</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6578311505742994</v>
+        <v>0.6594448581252107</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9054525617948044</v>
+        <v>0.905221849026643</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>59</v>
@@ -1651,19 +1651,19 @@
         <v>46701</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>40036</v>
+        <v>40371</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>51062</v>
+        <v>51451</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8130339552496446</v>
+        <v>0.8130339552496445</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6970020057969476</v>
+        <v>0.702835630670024</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8889595770139083</v>
+        <v>0.895741671102271</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>5380</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1916</v>
+        <v>1699</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10984</v>
+        <v>10760</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1793439733638576</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06386507533575077</v>
+        <v>0.05665185497701047</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3661787023342162</v>
+        <v>0.358721518854461</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -1701,19 +1701,19 @@
         <v>5360</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2595</v>
+        <v>2601</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9390</v>
+        <v>9346</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.1952969537544055</v>
+        <v>0.1952969537544054</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09454743820519568</v>
+        <v>0.09477815097335691</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3421688494257007</v>
+        <v>0.3405551418747892</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -1722,19 +1722,19 @@
         <v>10739</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6378</v>
+        <v>5989</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17404</v>
+        <v>17069</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.1869660447503554</v>
+        <v>0.1869660447503553</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1110404229860918</v>
+        <v>0.1042583288977289</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3029979942030525</v>
+        <v>0.2971643693299757</v>
       </c>
     </row>
     <row r="18">
@@ -1826,7 +1826,7 @@
         <v>12279</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8518</v>
+        <v>8336</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>13902</v>
@@ -1835,7 +1835,7 @@
         <v>0.8832815281408102</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6126971616290726</v>
+        <v>0.5996105543465737</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1</v>
@@ -1847,19 +1847,19 @@
         <v>16062</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12921</v>
+        <v>13497</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17250</v>
+        <v>17254</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9108078173592995</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7326719683057809</v>
+        <v>0.7653668121973786</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.978141435526707</v>
+        <v>0.9783763145509718</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>45</v>
@@ -1868,19 +1868,19 @@
         <v>28341</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>25112</v>
+        <v>24817</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>30369</v>
+        <v>30426</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.8986738516751656</v>
+        <v>0.8986738516751657</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.796275309039051</v>
+        <v>0.7869215748932759</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9629760370417693</v>
+        <v>0.9647664370543027</v>
       </c>
     </row>
     <row r="20">
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5384</v>
+        <v>5566</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1167184718591898</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.387302838370927</v>
+        <v>0.4003894456534264</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1918,19 +1918,19 @@
         <v>1573</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4714</v>
+        <v>4138</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.0891921826407007</v>
+        <v>0.08919218264070068</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02185856447329315</v>
+        <v>0.02162368544902807</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.267328031694219</v>
+        <v>0.2346331878026214</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -1939,19 +1939,19 @@
         <v>3196</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1168</v>
+        <v>1111</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6425</v>
+        <v>6720</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1013261483248343</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03702396295823107</v>
+        <v>0.03523356294569729</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2037246909609491</v>
+        <v>0.2130784251067237</v>
       </c>
     </row>
     <row r="21">
@@ -2056,7 +2056,7 @@
         <v>21817</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>19575</v>
+        <v>19400</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>22418</v>
@@ -2065,7 +2065,7 @@
         <v>0.9731961050907332</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8731835836809175</v>
+        <v>0.8653807257983728</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -2077,7 +2077,7 @@
         <v>30928</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>28461</v>
+        <v>29046</v>
       </c>
       <c r="T22" s="5" t="n">
         <v>31529</v>
@@ -2086,7 +2086,7 @@
         <v>0.9809418616335901</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9027024945457707</v>
+        <v>0.9212354307417335</v>
       </c>
       <c r="W22" s="6" t="n">
         <v>1</v>
@@ -2122,16 +2122,16 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2843</v>
+        <v>3018</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.02680389490926684</v>
+        <v>0.02680389490926685</v>
       </c>
       <c r="O23" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1268164163190808</v>
+        <v>0.1346192742016267</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3068</v>
+        <v>2483</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01905813836640993</v>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09729750545422938</v>
+        <v>0.07876456925826648</v>
       </c>
     </row>
     <row r="24">
@@ -2244,19 +2244,19 @@
         <v>127650</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>113429</v>
+        <v>111155</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>138324</v>
+        <v>139101</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.8099244944271486</v>
+        <v>0.8099244944271488</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7196930135808057</v>
+        <v>0.7052665717691223</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8776493823390542</v>
+        <v>0.8825819602673148</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>166</v>
@@ -2265,19 +2265,19 @@
         <v>120360</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>109460</v>
+        <v>109711</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>128443</v>
+        <v>128303</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.8303475713137558</v>
+        <v>0.8303475713137559</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7551531648356484</v>
+        <v>0.7568856540348119</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8861120418391141</v>
+        <v>0.8851486054343913</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>285</v>
@@ -2286,19 +2286,19 @@
         <v>248009</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>227916</v>
+        <v>229952</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>261093</v>
+        <v>261883</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.8197088769221691</v>
+        <v>0.819708876922169</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7532972638394984</v>
+        <v>0.7600265780192591</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.862950913996074</v>
+        <v>0.8655613211713549</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>29957</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>19283</v>
+        <v>18506</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>44178</v>
+        <v>46452</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1900755055728512</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.122350617660946</v>
+        <v>0.1174180397326852</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2803069864191945</v>
+        <v>0.2947334282308774</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>28</v>
@@ -2336,19 +2336,19 @@
         <v>24591</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>16508</v>
+        <v>16648</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>35491</v>
+        <v>35240</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1696524286862442</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1138879581608854</v>
+        <v>0.1148513945656087</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2448468351643511</v>
+        <v>0.2431143459651882</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>49</v>
@@ -2357,19 +2357,19 @@
         <v>54549</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>41465</v>
+        <v>40675</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>74642</v>
+        <v>72606</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1802911230778308</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.137049086003926</v>
+        <v>0.1344386788286453</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.246702736160502</v>
+        <v>0.2399734219807409</v>
       </c>
     </row>
     <row r="27">
